--- a/历史实验/6.9实验数据/新建 Microsoft Excel 工作表.xlsx
+++ b/历史实验/6.9实验数据/新建 Microsoft Excel 工作表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18588" windowHeight="9347"/>
+    <workbookView windowWidth="22488" windowHeight="9347" tabRatio="341" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="47">
   <si>
     <t>应用</t>
   </si>
@@ -95,6 +96,66 @@
   </si>
   <si>
     <t>发现bug所用例数</t>
+  </si>
+  <si>
+    <t>ClassNotFoundException</t>
+  </si>
+  <si>
+    <t>BadParcelableException</t>
+  </si>
+  <si>
+    <t>NullPointerException</t>
+  </si>
+  <si>
+    <t>IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>IllegalStateException</t>
+  </si>
+  <si>
+    <t>RuntimeExpection</t>
+  </si>
+  <si>
+    <t>StackOverflowError</t>
+  </si>
+  <si>
+    <t>IndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>UninitializedPropertyAccessException</t>
+  </si>
+  <si>
+    <t>VerifyError</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>bug数总计</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Antennapod</t>
+  </si>
+  <si>
+    <t>Conversation</t>
+  </si>
+  <si>
+    <t>Csipsimple</t>
+  </si>
+  <si>
+    <t>OpenKeyChain</t>
+  </si>
+  <si>
+    <t>SuntimeWidget</t>
+  </si>
+  <si>
+    <t>Syntching</t>
+  </si>
+  <si>
+    <t>各类bug统计</t>
   </si>
 </sst>
 </file>
@@ -102,12 +163,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,36 +186,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,17 +223,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,8 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,9 +262,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,13 +277,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,9 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +315,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,7 +350,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +464,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,61 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,44 +558,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -527,6 +605,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="5" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -547,6 +677,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,21 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -613,166 +739,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,37 +895,85 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2300,7 +2463,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="193040"/>
+        <a:off x="4859020" y="193040"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2574,815 +2737,815 @@
   <sheetPr/>
   <dimension ref="B2:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="27.6" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="21">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="21">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="22">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="24">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="21">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="21">
         <v>6</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="22">
         <v>0.8571</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="24">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="24">
         <v>8</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="25">
         <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="21">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="21">
         <v>9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="22">
         <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="24">
         <v>11</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="24">
         <v>7</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="25">
         <v>0.6364</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="21">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="21">
         <v>7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="22">
         <v>0.5385</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="24">
         <v>13</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="24">
         <v>8</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="25">
         <v>0.6154</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="21">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="21">
         <v>13</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="22">
         <v>0.9286</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="24">
         <v>17</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="24">
         <v>5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="25">
         <v>0.2941</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="21">
         <v>19</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="21">
         <v>7</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="22">
         <v>0.3684</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="24">
         <v>20</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="24">
         <v>16</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="25">
         <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="21">
         <v>21</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="21">
         <v>21</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="24">
         <v>22</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="24">
         <v>20</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="25">
         <v>0.9091</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="21">
         <v>23</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="21">
         <v>15</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="22">
         <v>0.6522</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="24">
         <v>24</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="24">
         <v>19</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="25">
         <v>0.7917</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="21">
         <v>29</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="21">
         <v>14</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="22">
         <v>0.4828</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="24">
         <v>33</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="24">
         <v>30</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="25">
         <v>0.9091</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="21">
         <v>45</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="21">
         <v>30</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="22">
         <v>0.6667</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="24">
         <v>51</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="24">
         <v>24</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="25">
         <v>0.4706</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="10">
+      <c r="C23" s="26">
         <f>SUM(C3:C22)</f>
         <v>391</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="26">
         <f>SUM(D3:D22)</f>
         <v>267</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="26">
         <v>0.6829</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="21">
         <v>10</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="22">
         <v>18</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="24">
         <v>8</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="25">
         <v>16</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="21">
         <v>14</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="22">
         <v>16</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="24">
         <v>2</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="25">
         <v>2</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="21">
         <v>36</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="22">
         <v>103</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="24">
         <v>11</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="25">
         <v>66</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="21">
         <v>22</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="22">
         <v>30</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="24">
         <v>9</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="25">
         <v>16</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5">
-        <v>39</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="21">
+        <v>39</v>
+      </c>
+      <c r="D35" s="22">
         <v>78</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="24">
         <v>2</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="25">
         <v>2</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="21">
         <v>47</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="22">
         <v>60</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="24">
         <v>16</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="25">
         <v>18</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="21">
         <v>31</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="22">
         <v>44</v>
       </c>
-      <c r="E39" s="15"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="24">
         <v>12</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="25">
         <v>22</v>
       </c>
-      <c r="E40" s="15"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="5">
-        <v>39</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" s="21">
+        <v>39</v>
+      </c>
+      <c r="D41" s="22">
         <v>61</v>
       </c>
-      <c r="E41" s="15"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="24">
         <v>4</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="25">
         <v>4</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="21">
         <v>11</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="22">
         <v>27</v>
       </c>
-      <c r="E43" s="15"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="24">
         <v>3</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="25">
         <v>5</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="21">
         <v>106</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="22">
         <v>212</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="24">
         <v>5</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="25">
         <v>17</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="21">
         <v>82</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="22">
         <v>122</v>
       </c>
-      <c r="E47" s="15"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="24">
         <v>34</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="25">
         <v>38</v>
       </c>
-      <c r="E48" s="15"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="21">
         <v>3</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="22">
         <v>4</v>
       </c>
-      <c r="E49" s="15"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="24">
         <v>0</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="25">
         <v>0</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="21">
         <v>19</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="22">
         <v>32</v>
       </c>
-      <c r="E51" s="15"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="24">
         <v>7</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="25">
         <v>10</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="31"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="21">
         <v>134</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="22">
         <v>214</v>
       </c>
-      <c r="E53" s="15"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="24">
         <v>33</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="25">
         <v>61</v>
       </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="31"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="21">
         <v>10</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="22">
         <v>20</v>
       </c>
-      <c r="E55" s="15"/>
+      <c r="E55" s="31"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="24">
         <v>8</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="25">
         <v>18</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="31"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="21">
         <v>17</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="22">
         <v>49</v>
       </c>
-      <c r="E57" s="15"/>
+      <c r="E57" s="31"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="24">
         <v>10</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="25">
         <v>32</v>
       </c>
-      <c r="E58" s="15"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="21">
         <v>11</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="22">
         <v>11</v>
       </c>
-      <c r="E59" s="15"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="24">
         <v>0</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="25">
         <v>0</v>
       </c>
-      <c r="E60" s="15"/>
+      <c r="E60" s="31"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="21">
         <v>15</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="22">
         <v>35</v>
       </c>
-      <c r="E61" s="15"/>
+      <c r="E61" s="31"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="24">
         <v>3</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="25">
         <v>6</v>
       </c>
-      <c r="E62" s="15"/>
+      <c r="E62" s="31"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="21">
         <v>53</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="22">
         <v>92</v>
       </c>
-      <c r="E63" s="15"/>
+      <c r="E63" s="31"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="24">
         <v>41</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="25">
         <v>71</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="31"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="21">
         <v>24</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="22">
         <v>28</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="31"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="24">
         <v>5</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="25">
         <v>7</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="31"/>
     </row>
   </sheetData>
   <sortState ref="B3:E22">
@@ -3392,4 +3555,956 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="17.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" customWidth="1"/>
+    <col min="5" max="13" width="8.77777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="69" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="13">
+        <f>SUM(B2:L2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="14">
+        <f>SUM(B3:L3)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="13">
+        <f>SUM(B4:L4)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="14">
+        <f>SUM(B5:L5)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="13">
+        <f>SUM(B6:L6)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <f>SUM(B7:L7)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="8">
+        <v>5</v>
+      </c>
+      <c r="M8" s="13">
+        <f>SUM(B8:L8)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="9">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14">
+        <f>SUM(B9:L9)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="13">
+        <f>SUM(B10:L10)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7">
+        <v>47</v>
+      </c>
+      <c r="D11" s="7">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="14">
+        <f>SUM(B11:L11)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="5">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="13">
+        <f>SUM(B12:L12)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="14">
+        <f>SUM(B13:L13)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="13">
+        <f>SUM(B14:L14)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="9">
+        <v>9</v>
+      </c>
+      <c r="M15" s="14">
+        <f>SUM(B15:L15)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="13">
+        <f>SUM(B16:L16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>3</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="14">
+        <f>SUM(B17:L17)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="13">
+        <f>SUM(B18:L18)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="14">
+        <f>SUM(B19:L19)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="8">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="13">
+        <f>SUM(B20:L20)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="7">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="15">
+        <f>SUM(B21:L21)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="11">
+        <f>SUM(B2:B21)</f>
+        <v>254</v>
+      </c>
+      <c r="C22" s="11">
+        <f>SUM(C2:C21)</f>
+        <v>269</v>
+      </c>
+      <c r="D22" s="11">
+        <f>SUM(D3:D21)</f>
+        <v>98</v>
+      </c>
+      <c r="E22" s="11">
+        <f>SUM(E5:E21)</f>
+        <v>14</v>
+      </c>
+      <c r="F22" s="11">
+        <f>SUM(F6:F21)</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(G4:G21)</f>
+        <v>12</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H7:H21)</f>
+        <v>33</v>
+      </c>
+      <c r="I22" s="11">
+        <f>SUM(I12:I21)</f>
+        <v>4</v>
+      </c>
+      <c r="J22" s="11">
+        <f>SUM(J9:J21)</f>
+        <v>5</v>
+      </c>
+      <c r="K22" s="11">
+        <f>SUM(K5:K21)</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="11">
+        <f>SUM(L3:L21)</f>
+        <v>27</v>
+      </c>
+      <c r="M22" s="16">
+        <f>SUM(M2:M21)</f>
+        <v>723</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>